--- a/data_cripto/eth_ctd.xlsx
+++ b/data_cripto/eth_ctd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,310 +448,910 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-09 00:00:00.000 UTC</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74573104.2057604</v>
+        <v>16237917.44746791</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-08 00:00:00.000 UTC</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110095518.5188911</v>
+        <v>255330461.6236547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-07 00:00:00.000 UTC</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89073546.1780607</v>
+        <v>331930323.3177906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-06 00:00:00.000 UTC</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74886859.84897305</v>
+        <v>273825243.5535399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-08-05 00:00:00.000 UTC</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70912734.67758822</v>
+        <v>227740759.7356054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-08-04 00:00:00.000 UTC</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86249879.30344887</v>
+        <v>239790035.9573519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-08-03 00:00:00.000 UTC</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43331491.03578708</v>
+        <v>283055614.2209576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-08-02 00:00:00.000 UTC</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42870570.28980587</v>
+        <v>145751527.1155781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-08-01 00:00:00.000 UTC</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65015418.46054327</v>
+        <v>148756051.2357697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-31 00:00:00.000 UTC</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56209602.86216445</v>
+        <v>245871314.5956763</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-30 00:00:00.000 UTC</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51019833.54569881</v>
+        <v>218984138.9857689</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-29 00:00:00.000 UTC</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48030064.11520296</v>
+        <v>217589541.5310631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 00:00:00.000 UTC</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55070435.00782558</v>
+        <v>210241774.4219657</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-27 00:00:00.000 UTC</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33219435.22096607</v>
+        <v>248160931.9161392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-26 00:00:00.000 UTC</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23209682.94574257</v>
+        <v>157317404.9226233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-25 00:00:00.000 UTC</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>71524309.74485822</v>
+        <v>115326563.4160282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-24 00:00:00.000 UTC</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58675251.76608549</v>
+        <v>338843267.4075802</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-23 00:00:00.000 UTC</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48054748.84488188</v>
+        <v>329434036.5260202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-22 00:00:00.000 UTC</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41777581.42776037</v>
+        <v>285987465.0083136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-21 00:00:00.000 UTC</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42882043.52451503</v>
+        <v>263974538.5227617</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-20 00:00:00.000 UTC</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26377952.36997543</v>
+        <v>302670138.2537225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-19 00:00:00.000 UTC</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13625798.39078033</v>
+        <v>187879060.1554403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-18 00:00:00.000 UTC</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40882135.22542481</v>
+        <v>113576635.1449318</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-07-17 00:00:00.000 UTC</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26991854.69345142</v>
+        <v>396821458.5376023</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-16 00:00:00.000 UTC</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23927098.2752804</v>
+        <v>299997682.9589291</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-07-15 00:00:00.000 UTC</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13277008.70390566</v>
+        <v>315274743.924336</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-07-14 00:00:00.000 UTC</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10447725.93368419</v>
+        <v>221751576.2456328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-13 00:00:00.000 UTC</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2619724.789099776</v>
+        <v>228632955.4639605</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-12 00:00:00.000 UTC</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1063428.363516947</v>
+        <v>77298379.60915929</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-11 00:00:00.000 UTC</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>318644.6134054327</v>
+        <v>68729008.89423957</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-10 00:00:00.000 UTC</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B32" t="n">
+        <v>273491211.5440558</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>311355371.0831061</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>219496375.1561365</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>122900562.3590051</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>138949731.2125357</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-06</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>44068298.4920914</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>50321732.37630983</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>93296083.77838759</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>103762883.2758709</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>118641442.2821691</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>104052349.5591028</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>96323095.66042399</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>48797493.62001161</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>53149202.33578121</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>79445303.06430425</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>106756184.234372</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>101899109.3520003</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>111302387.5365243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>120295499.0372774</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>106523955.3535802</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>67015519.90247962</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>113476974.3587011</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>58169712.15150718</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>83396727.51656954</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>89179362.37757279</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>78485404.95944597</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>33270340.57746349</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>42895132.75153452</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-13</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>110645328.9235103</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-12</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>90720745.13847093</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>93604566.76036374</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>115648997.2790793</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>77141221.82102412</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-08</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>33563147.57730371</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>31523185.91079302</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-06</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>56787232.51218938</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>75648814.39053705</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>54062415.77753913</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>69231081.69790187</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>54080700.11234147</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>25727272.4632705</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-05-31</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>26308397.8637051</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-05-30</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>49895240.34196761</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-05-29</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>54363900.7793263</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>44638104.57279627</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-05-27</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>41766476.90339322</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-05-26</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>22287710.41359876</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>16035422.5799544</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-05-24</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>14045457.88708747</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>42660379.97980966</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>33452533.87376589</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-05-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>31073837.6582741</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>18995300.9009021</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>19453353.91775436</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>8745072.233857563</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>7433363.816208</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>10611832.27542493</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>8022702.502221551</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5152642.678505195</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2577812.749646319</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data_cripto/eth_ctd.xlsx
+++ b/data_cripto/eth_ctd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/eth_ctd.xlsx
+++ b/data_cripto/eth_ctd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_cripto/eth_ctd.xlsx
+++ b/data_cripto/eth_ctd.xlsx
@@ -448,907 +448,907 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16237917.44746791</v>
+        <v>81033205.20248067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255330461.6236547</v>
+        <v>421657339.9485856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331930323.3177906</v>
+        <v>367643258.7180152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>273825243.5535399</v>
+        <v>176988925.4149679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227740759.7356054</v>
+        <v>245856132.8261445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239790035.9573519</v>
+        <v>320443485.9796656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>283055614.2209576</v>
+        <v>264322222.4236065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145751527.1155781</v>
+        <v>219466770.5495638</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148756051.2357697</v>
+        <v>231025105.5679844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>245871314.5956763</v>
+        <v>272444194.4442009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>218984138.9857689</v>
+        <v>140442764.9315078</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217589541.5310631</v>
+        <v>143189503.9347401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>210241774.4219657</v>
+        <v>236219785.3022446</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>248160931.9161392</v>
+        <v>210070791.551131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157317404.9226233</v>
+        <v>209540986.6366881</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>115326563.4160282</v>
+        <v>201497214.2043085</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>338843267.4075802</v>
+        <v>238443654.1016278</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>329434036.5260202</v>
+        <v>150723461.9293018</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285987465.0083136</v>
+        <v>110467869.7400672</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>263974538.5227617</v>
+        <v>325306829.8980113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>302670138.2537225</v>
+        <v>315584096.6048203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>187879060.1554403</v>
+        <v>273103179.9856921</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>113576635.1449318</v>
+        <v>252839571.7090494</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>396821458.5376023</v>
+        <v>287534340.191266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>299997682.9589291</v>
+        <v>179235821.1604832</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>315274743.924336</v>
+        <v>108076077.7861769</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221751576.2456328</v>
+        <v>377637031.4219036</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>228632955.4639605</v>
+        <v>285106722.1421769</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77298379.60915929</v>
+        <v>297842995.5430465</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68729008.89423957</v>
+        <v>211469936.5689954</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>273491211.5440558</v>
+        <v>215862576.6985976</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>311355371.0831061</v>
+        <v>73274667.40841724</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>219496375.1561365</v>
+        <v>65619476.86229393</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122900562.3590051</v>
+        <v>258074815.0940864</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138949731.2125357</v>
+        <v>294755610.3317068</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44068298.4920914</v>
+        <v>208090897.2685932</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50321732.37630983</v>
+        <v>116421944.9348469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93296083.77838759</v>
+        <v>128634751.5009331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103762883.2758709</v>
+        <v>41691610.844664</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>118641442.2821691</v>
+        <v>47391815.14893013</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104052349.5591028</v>
+        <v>87362658.89858891</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96323095.66042399</v>
+        <v>96852102.9405461</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48797493.62001161</v>
+        <v>111272412.3747133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53149202.33578121</v>
+        <v>97727443.02943528</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>79445303.06430425</v>
+        <v>90762985.57165717</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>106756184.234372</v>
+        <v>45629842.68873332</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>101899109.3520003</v>
+        <v>49391612.42401104</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>111302387.5365243</v>
+        <v>73391796.29360275</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>120295499.0372774</v>
+        <v>99197026.88153392</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>106523955.3535802</v>
+        <v>93849275.52246633</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>67015519.90247962</v>
+        <v>103312778.2570151</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>113476974.3587011</v>
+        <v>110811084.6704551</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>58169712.15150718</v>
+        <v>97759919.57754554</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>83396727.51656954</v>
+        <v>60820564.57234851</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>89179362.37757279</v>
+        <v>102959484.6808149</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>78485404.95944597</v>
+        <v>53274073.17976746</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>33270340.57746349</v>
+        <v>76153087.38120334</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>42895132.75153452</v>
+        <v>81406249.06313571</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>110645328.9235103</v>
+        <v>69665277.24151368</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>90720745.13847093</v>
+        <v>29870597.28393855</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>93604566.76036374</v>
+        <v>38862321.13130089</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>115648997.2790793</v>
+        <v>100143016.3027417</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>77141221.82102412</v>
+        <v>81373788.72559002</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>33563147.57730371</v>
+        <v>83624942.57341272</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>31523185.91079302</v>
+        <v>102705323.6274415</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>56787232.51218938</v>
+        <v>68161395.11618964</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>75648814.39053705</v>
+        <v>29460582.84033021</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>54062415.77753913</v>
+        <v>27769404.21888833</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>69231081.69790187</v>
+        <v>49557629.16915839</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>54080700.11234147</v>
+        <v>65385422.30752166</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25727272.4632705</v>
+        <v>46178437.2801044</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>26308397.8637051</v>
+        <v>57972915.92897102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>49895240.34196761</v>
+        <v>44193249.13332922</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>54363900.7793263</v>
+        <v>21441482.47612942</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>44638104.57279627</v>
+        <v>21770042.23491372</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>41766476.90339322</v>
+        <v>40910164.59643406</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>22287710.41359876</v>
+        <v>43613792.48368327</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>16035422.5799544</v>
+        <v>35354628.15641695</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>14045457.88708747</v>
+        <v>31725736.51708621</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>42660379.97980966</v>
+        <v>17002206.06737146</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>33452533.87376589</v>
+        <v>12064248.92457108</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>31073837.6582741</v>
+        <v>10127058.01072751</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>18995300.9009021</v>
+        <v>30121842.9034637</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>19453353.91775436</v>
+        <v>21784786.65850368</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8745072.233857563</v>
+        <v>18446273.38275375</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7433363.816208</v>
+        <v>10792988.14646428</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10611832.27542493</v>
+        <v>10246649.10064018</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>8022702.502221551</v>
+        <v>4091717.386715121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-05-14</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5152642.678505195</v>
+        <v>2136458.309736709</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-16</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2577812.749646319</v>
+        <v>2092991.21649597</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-15</t>
         </is>
       </c>
       <c r="B92" t="n">

--- a/data_cripto/eth_ctd.xlsx
+++ b/data_cripto/eth_ctd.xlsx
@@ -448,907 +448,907 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81033205.20248067</v>
+        <v>53569252.05986801</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>421657339.9485856</v>
+        <v>474250307.5588575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367643258.7180152</v>
+        <v>454332784.2150262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176988925.4149679</v>
+        <v>411643222.8614323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245856132.8261445</v>
+        <v>358558765.0538661</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>320443485.9796656</v>
+        <v>172772643.8486509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>264322222.4236065</v>
+        <v>239786692.18512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>219466770.5495638</v>
+        <v>311616450.7669762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231025105.5679844</v>
+        <v>257400294.72732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272444194.4442009</v>
+        <v>213687404.2798022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>140442764.9315078</v>
+        <v>223963748.0183076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143189503.9347401</v>
+        <v>264262197.8957034</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>236219785.3022446</v>
+        <v>136759214.0082828</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>210070791.551131</v>
+        <v>139464455.8134802</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>209540986.6366881</v>
+        <v>230116616.3141773</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>201497214.2043085</v>
+        <v>203965637.1882379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>238443654.1016278</v>
+        <v>203056034.8923948</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150723461.9293018</v>
+        <v>195290233.0738776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>110467869.7400672</v>
+        <v>231115383.7851513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>325306829.8980113</v>
+        <v>146596362.4811769</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>315584096.6048203</v>
+        <v>106620970.1211761</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>273103179.9856921</v>
+        <v>313957908.7482931</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>252839571.7090494</v>
+        <v>304906281.8793401</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>287534340.191266</v>
+        <v>263249758.0368302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>179235821.1604832</v>
+        <v>245052147.5719859</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108076077.7861769</v>
+        <v>275620733.1189954</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377637031.4219036</v>
+        <v>173607233.9641771</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>285106722.1421769</v>
+        <v>104496780.0723041</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>297842995.5430465</v>
+        <v>356327128.0659061</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>211469936.5689954</v>
+        <v>274621300.4034743</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215862576.6985976</v>
+        <v>287242014.2292551</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>73274667.40841724</v>
+        <v>204115335.5977174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65619476.86229393</v>
+        <v>207681072.9428969</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>258074815.0940864</v>
+        <v>70749855.20647375</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>294755610.3317068</v>
+        <v>63158587.30554453</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208090897.2685932</v>
+        <v>247629696.3959696</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>116421944.9348469</v>
+        <v>283335093.7652446</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>128634751.5009331</v>
+        <v>199705596.5688512</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41691610.844664</v>
+        <v>111696470.7918307</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47391815.14893013</v>
+        <v>124112836.7666346</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>87362658.89858891</v>
+        <v>40163297.19876762</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96852102.9405461</v>
+        <v>45427598.77518176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>111272412.3747133</v>
+        <v>83701638.70677143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97727443.02943528</v>
+        <v>91681113.21344955</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90762985.57165717</v>
+        <v>106035280.4977414</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>45629842.68873332</v>
+        <v>93664496.77143234</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>49391612.42401104</v>
+        <v>86025628.12138255</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>73391796.29360275</v>
+        <v>43530892.19057964</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99197026.88153392</v>
+        <v>47153990.44345647</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>93849275.52246633</v>
+        <v>69669363.60663021</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>103312778.2570151</v>
+        <v>94210866.29756472</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>110811084.6704551</v>
+        <v>87950599.52773128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>97759919.57754554</v>
+        <v>97852773.22288355</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>60820564.57234851</v>
+        <v>104669135.7486174</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>102959484.6808149</v>
+        <v>92079823.03229567</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>53274073.17976746</v>
+        <v>57740905.5542418</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>76153087.38120334</v>
+        <v>95765400.15695037</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>81406249.06313571</v>
+        <v>50225942.1302923</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>69665277.24151368</v>
+        <v>71253487.64188768</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>29870597.28393855</v>
+        <v>76221978.27901807</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>38862321.13130089</v>
+        <v>65076893.6726959</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100143016.3027417</v>
+        <v>27986617.94873391</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>81373788.72559002</v>
+        <v>36228623.60381503</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>83624942.57341272</v>
+        <v>92701229.12312403</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>102705323.6274415</v>
+        <v>74780331.67101409</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>68161395.11618964</v>
+        <v>76513807.21068643</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>29460582.84033021</v>
+        <v>93746998.83029054</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>27769404.21888833</v>
+        <v>62497932.0197456</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>49557629.16915839</v>
+        <v>26787538.39338488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>65385422.30752166</v>
+        <v>25202010.48355798</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>46178437.2801044</v>
+        <v>44386224.9660299</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>57972915.92897102</v>
+        <v>58572193.57964312</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>44193249.13332922</v>
+        <v>40574270.32138635</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>21441482.47612942</v>
+        <v>50866334.29710567</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>21770042.23491372</v>
+        <v>38309173.23714692</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>40910164.59643406</v>
+        <v>18665273.15846612</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>43613792.48368327</v>
+        <v>18797828.25259816</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>35354628.15641695</v>
+        <v>34400413.77739425</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>31725736.51708621</v>
+        <v>36397836.08747426</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>17002206.06737146</v>
+        <v>28638382.66518482</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12064248.92457108</v>
+        <v>25662894.91937358</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>10127058.01072751</v>
+        <v>13667341.51188104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>30121842.9034637</v>
+        <v>9517317.076726463</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>21784786.65850368</v>
+        <v>7676793.471972713</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>18446273.38275375</v>
+        <v>20439499.93856227</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10792988.14646428</v>
+        <v>14354981.12672388</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10246649.10064018</v>
+        <v>11465605.22285165</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4091717.386715121</v>
+        <v>5535698.037635867</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2136458.309736709</v>
+        <v>4098188.423286779</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-05-16</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2092991.21649597</v>
+        <v>1137517.792993552</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-05-15</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="B92" t="n">

--- a/data_cripto/eth_ctd.xlsx
+++ b/data_cripto/eth_ctd.xlsx
@@ -448,907 +448,907 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53569252.05986801</v>
+        <v>39875082.60709834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>474250307.5588575</v>
+        <v>127909696.122536</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>454332784.2150262</v>
+        <v>173228298.3692577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>411643222.8614323</v>
+        <v>398134595.4391519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358558765.0538661</v>
+        <v>461098123.8290485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172772643.8486509</v>
+        <v>441672626.835981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-08-09</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>239786692.18512</v>
+        <v>399741406.9363396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311616450.7669762</v>
+        <v>348723926.6855065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257400294.72732</v>
+        <v>167257891.1407955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>213687404.2798022</v>
+        <v>231409856.2973006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>223963748.0183076</v>
+        <v>302139274.8197995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264262197.8957034</v>
+        <v>248721380.7280167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-08-03</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>136759214.0082828</v>
+        <v>205936517.067488</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>139464455.8134802</v>
+        <v>216959547.3974099</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>230116616.3141773</v>
+        <v>255378615.2343546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-31</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>203965637.1882379</v>
+        <v>131788737.9400446</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>203056034.8923948</v>
+        <v>134321826.4249347</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-29</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195290233.0738776</v>
+        <v>222096694.481833</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231115383.7851513</v>
+        <v>196976444.1778524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-27</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146596362.4811769</v>
+        <v>196259271.9226126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-26</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106620970.1211761</v>
+        <v>188157621.1173442</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313957908.7482931</v>
+        <v>222710730.0569534</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304906281.8793401</v>
+        <v>141340956.0437344</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263249758.0368302</v>
+        <v>102301192.1473599</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>245052147.5719859</v>
+        <v>302417108.5540851</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>275620733.1189954</v>
+        <v>293498924.377977</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173607233.9641771</v>
+        <v>252945230.802444</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104496780.0723041</v>
+        <v>235377664.6677089</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>356327128.0659061</v>
+        <v>265725810.5421415</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>274621300.4034743</v>
+        <v>166003060.0975893</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287242014.2292551</v>
+        <v>99630259.20593959</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>204115335.5977174</v>
+        <v>341641480.1774386</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>207681072.9428969</v>
+        <v>263929733.1582582</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70749855.20647375</v>
+        <v>274965853.1087624</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>63158587.30554453</v>
+        <v>194504717.2233609</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247629696.3959696</v>
+        <v>199212671.640054</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>283335093.7652446</v>
+        <v>67397267.42220733</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>199705596.5688512</v>
+        <v>59509678.62156041</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111696470.7918307</v>
+        <v>237095162.8019476</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>124112836.7666346</v>
+        <v>269487550.3157344</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40163297.19876762</v>
+        <v>189975456.97208</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45427598.77518176</v>
+        <v>105321447.9202643</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83701638.70677143</v>
+        <v>118298738.3020559</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>91681113.21344955</v>
+        <v>37918281.9676257</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106035280.4977414</v>
+        <v>42815223.74529098</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>93664496.77143234</v>
+        <v>79330664.18786532</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>86025628.12138255</v>
+        <v>87041086.75424957</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>43530892.19057964</v>
+        <v>100155155.5831985</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>47153990.44345647</v>
+        <v>88170386.68395177</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>69669363.60663021</v>
+        <v>81431408.21783389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>94210866.29756472</v>
+        <v>40674198.58080684</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>87950599.52773128</v>
+        <v>44239058.22301216</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>97852773.22288355</v>
+        <v>65369554.86055265</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>104669135.7486174</v>
+        <v>87989857.0855388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>92079823.03229567</v>
+        <v>82230007.22740635</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>57740905.5542418</v>
+        <v>91087982.53820466</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>95765400.15695037</v>
+        <v>96974959.81910713</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>50225942.1302923</v>
+        <v>80953687.0782463</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-06-18</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>71253487.64188768</v>
+        <v>53275326.20229698</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-20</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>76221978.27901807</v>
+        <v>88480817.66916019</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-06-16</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>65076893.6726959</v>
+        <v>45973479.02046383</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-06-15</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>27986617.94873391</v>
+        <v>65065246.75648392</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>36228623.60381503</v>
+        <v>69452617.35046288</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-16</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>92701229.12312403</v>
+        <v>59504174.05753288</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-15</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>74780331.67101409</v>
+        <v>23689654.42911159</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>76513807.21068643</v>
+        <v>32665669.31324345</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>93746998.83029054</v>
+        <v>83663019.70409381</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>62497932.0197456</v>
+        <v>67393373.64625727</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-06-08</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>26787538.39338488</v>
+        <v>68658096.65828323</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>25202010.48355798</v>
+        <v>83714327.48942502</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-09</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>44386224.9660299</v>
+        <v>55046084.38317076</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-06-08</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>58572193.57964312</v>
+        <v>23504259.16987671</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>40574270.32138635</v>
+        <v>21682079.22131747</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-06-03</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50866334.29710567</v>
+        <v>38442841.74173437</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
+          <t>2025-06-05</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>38309173.23714692</v>
+        <v>50469619.8692636</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>18665273.15846612</v>
+        <v>34897821.24239886</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-05-31</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>18797828.25259816</v>
+        <v>42992224.42016432</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-05-30</t>
+          <t>2025-06-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>34400413.77739425</v>
+        <v>31747008.61932854</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>36397836.08747426</v>
+        <v>15194715.34629678</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-05-31</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>28638382.66518482</v>
+        <v>14960731.18804098</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-05-27</t>
+          <t>2025-05-30</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25662894.91937358</v>
+        <v>27151000.16094201</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>13667341.51188104</v>
+        <v>28266840.45500107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9517317.076726463</v>
+        <v>21671865.12799756</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-05-24</t>
+          <t>2025-05-27</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7676793.471972713</v>
+        <v>18532236.46781721</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-05-26</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>20439499.93856227</v>
+        <v>9190403.778109029</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-05-25</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>14354981.12672388</v>
+        <v>5842319.476131808</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-05-21</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11465605.22285165</v>
+        <v>4437572.421690512</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-05-20</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5535698.037635867</v>
+        <v>9984258.981534394</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4098188.423286779</v>
+        <v>5470384.339800565</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-21</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1137517.792993552</v>
+        <v>2824233.252528843</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="B92" t="n">
